--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093564.944756821</v>
+        <v>3091831.463643178</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228709</v>
+        <v>6049179.212228714</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>201.7598688710648</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H11" t="n">
         <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173338</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="T11" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
-        <v>171.6919384270541</v>
+        <v>92.7809544184604</v>
       </c>
       <c r="V11" t="n">
         <v>248.321047243028</v>
@@ -1433,7 +1433,7 @@
         <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.41374673918892</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>68.01385433753184</v>
+        <v>68.01385433753182</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868781</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1665539401884</v>
+        <v>127.04711702951</v>
       </c>
       <c r="U12" t="n">
         <v>225.843479337428</v>
@@ -1512,7 +1512,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>126.3417739763706</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1528,25 +1528,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152092</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110544</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946226</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582433</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571736</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278248</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234364</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>298.4788257249292</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500373</v>
+        <v>40.18862770203189</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V14" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W14" t="n">
-        <v>269.809757490306</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>290.299889451362</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7959910432333</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.42418423419249</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
-        <v>18.43211025672103</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S15" t="n">
-        <v>64.61075194868776</v>
+        <v>64.61075194868781</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1665539401884</v>
+        <v>114.7353427130815</v>
       </c>
       <c r="U15" t="n">
-        <v>225.843479337428</v>
+        <v>158.7240424267495</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110538</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E16" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582427</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234359</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1822,16 +1822,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W16" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X16" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092668</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167938</v>
       </c>
       <c r="D17" t="n">
-        <v>195.8206191664691</v>
+        <v>15.92229651677866</v>
       </c>
       <c r="E17" t="n">
         <v>223.067947618048</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>52.05832719786054</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994715</v>
+        <v>92.26072719994718</v>
       </c>
       <c r="V17" t="n">
-        <v>41.04984056409191</v>
+        <v>168.8898360159211</v>
       </c>
       <c r="W17" t="n">
         <v>190.3785462631992</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>46.00960766043257</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8553954612995</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>77.65444732241328</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>20.9695577277235</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644414006</v>
+        <v>8.384398644414034</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610455</v>
+        <v>7.880965658610482</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>54.11983324855709</v>
       </c>
       <c r="I19" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315274</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>202.2744851471423</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362944</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U19" t="n">
-        <v>217.2843294737025</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961417</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>127.6605758823772</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482332</v>
+        <v>66.84723293482335</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788096</v>
+        <v>59.72223089788099</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092668</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167938</v>
       </c>
       <c r="D20" t="n">
-        <v>195.8206191664691</v>
+        <v>195.8206191664692</v>
       </c>
       <c r="E20" t="n">
         <v>223.067947618048</v>
@@ -2093,7 +2093,7 @@
         <v>248.0136232874976</v>
       </c>
       <c r="G20" t="n">
-        <v>73.7607017402872</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777489</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786051</v>
+        <v>52.05832719786054</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994715</v>
+        <v>92.26072719994718</v>
       </c>
       <c r="V20" t="n">
         <v>168.8898360159211</v>
@@ -2147,7 +2147,7 @@
         <v>210.8686782242552</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3755162018398</v>
+        <v>47.47719355214893</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8553954612995</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>61.67925091495658</v>
       </c>
       <c r="T21" t="n">
         <v>194.1665539401884</v>
@@ -2220,10 +2220,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>92.83256070670578</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>198.356006048031</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772347</v>
+        <v>20.9695577277235</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644414006</v>
+        <v>8.384398644414034</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610455</v>
+        <v>93.41659306877607</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292851</v>
+        <v>43.41206269292853</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362944</v>
+        <v>63.75254983362947</v>
       </c>
       <c r="U22" t="n">
         <v>127.388556470697</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961417</v>
+        <v>93.2752208696142</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>127.6605758823772</v>
       </c>
       <c r="X22" t="n">
-        <v>134.4084406146631</v>
+        <v>66.84723293482335</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788099</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092668</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167938</v>
       </c>
       <c r="D23" t="n">
-        <v>195.8206191664691</v>
+        <v>195.8206191664692</v>
       </c>
       <c r="E23" t="n">
         <v>223.067947618048</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786051</v>
+        <v>52.05832719786054</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994715</v>
+        <v>92.26072719994718</v>
       </c>
       <c r="V23" t="n">
         <v>168.8898360159211</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.4496469346647</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2415,7 +2415,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>144.0419631757947</v>
+        <v>67.56131437475123</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772347</v>
+        <v>20.9695577277235</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644414006</v>
+        <v>8.384398644414034</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610455</v>
+        <v>93.41659306877607</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315274</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.37741689117054</v>
+        <v>43.41206269292853</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6149722878433</v>
+        <v>63.75254983362947</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2509789249108</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961417</v>
+        <v>93.2752208696142</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>127.6605758823772</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482332</v>
+        <v>66.84723293482335</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788096</v>
+        <v>59.72223089788099</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C26" t="n">
-        <v>285.8416805439006</v>
+        <v>285.8416805439007</v>
       </c>
       <c r="D26" t="n">
         <v>275.251830393576</v>
@@ -2573,7 +2573,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859607</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754457</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2713,25 +2713,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152093</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110546</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946227</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582435</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571738</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278249</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234363</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
       </c>
       <c r="T28" t="n">
-        <v>143.1837610607363</v>
+        <v>143.1837610607364</v>
       </c>
       <c r="U28" t="n">
         <v>206.8197676978039</v>
@@ -2776,7 +2776,7 @@
         <v>207.0917871094841</v>
       </c>
       <c r="X28" t="n">
-        <v>146.2784441619302</v>
+        <v>146.2784441619303</v>
       </c>
       <c r="Y28" t="n">
         <v>139.1534421249879</v>
@@ -2792,7 +2792,7 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8416805439006</v>
+        <v>285.8416805439007</v>
       </c>
       <c r="D29" t="n">
         <v>275.251830393576</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T29" t="n">
         <v>131.4895384249674</v>
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2950,25 +2950,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152092</v>
+        <v>87.81560987152093</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110544</v>
+        <v>69.18426179110546</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946226</v>
+        <v>67.00275141946227</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582433</v>
+        <v>65.98983679582435</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571736</v>
+        <v>87.31217688571738</v>
       </c>
       <c r="H31" t="n">
         <v>71.70374093278249</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234364</v>
+        <v>38.50079242234365</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>122.8432739200354</v>
       </c>
       <c r="T31" t="n">
-        <v>143.1837610607363</v>
+        <v>143.1837610607364</v>
       </c>
       <c r="U31" t="n">
         <v>206.8197676978039</v>
@@ -3013,7 +3013,7 @@
         <v>207.0917871094841</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2784441619302</v>
+        <v>146.2784441619303</v>
       </c>
       <c r="Y31" t="n">
         <v>139.1534421249879</v>
@@ -3044,10 +3044,10 @@
         <v>333.0902356170842</v>
       </c>
       <c r="H32" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173335</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T32" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U32" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V32" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W32" t="n">
         <v>269.8097574903061</v>
@@ -3095,7 +3095,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152092</v>
       </c>
       <c r="D34" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110544</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946226</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582433</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571736</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I34" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089779</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S34" t="n">
         <v>122.8432739200354</v>
@@ -3244,16 +3244,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V34" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W34" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X34" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C35" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E35" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F35" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H35" t="n">
         <v>165.349500609852</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U35" t="n">
         <v>105.4817412320503</v>
@@ -3363,7 +3363,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H37" t="n">
-        <v>103.447524625386</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503164</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U37" t="n">
         <v>140.6095705028001</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4962349017173</v>
+        <v>204.4502157893245</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.06824696692644</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E38" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3600,7 +3600,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651712</v>
+        <v>119.7797539633038</v>
       </c>
       <c r="D40" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071357</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778687</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I40" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>182.2964623852993</v>
+        <v>56.63307672503164</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U40" t="n">
         <v>140.6095705028001</v>
@@ -3724,10 +3724,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E41" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H41" t="n">
         <v>165.349500609852</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U41" t="n">
         <v>105.4817412320503</v>
@@ -3837,7 +3837,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I42" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C43" t="n">
-        <v>144.0036497082303</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>2.974064596101641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584562</v>
+        <v>98.7465351120656</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778687</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503162</v>
+        <v>56.63307672503164</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U43" t="n">
         <v>140.6095705028001</v>
@@ -3961,10 +3961,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>261.2346373196008</v>
       </c>
       <c r="G44" t="n">
-        <v>266.8800384220787</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H44" t="n">
         <v>165.349500609852</v>
@@ -4074,7 +4074,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I45" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>21.60541267651715</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7433881128243</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I46" t="n">
-        <v>97.95398088760686</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>97.95398088760717</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503165</v>
+        <v>56.63307672503164</v>
       </c>
       <c r="T46" t="n">
         <v>76.97356386573259</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V46" t="n">
         <v>106.4962349017173</v>
@@ -4201,7 +4201,7 @@
         <v>80.06824696692647</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.9432449299841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1144.752604774322</v>
+        <v>1211.326587626426</v>
       </c>
       <c r="C11" t="n">
-        <v>940.9547574298126</v>
+        <v>922.5976173800616</v>
       </c>
       <c r="D11" t="n">
-        <v>940.9547574298126</v>
+        <v>922.5976173800616</v>
       </c>
       <c r="E11" t="n">
-        <v>635.4000515256157</v>
+        <v>617.0429114758647</v>
       </c>
       <c r="F11" t="n">
-        <v>304.6476934300556</v>
+        <v>617.0429114758647</v>
       </c>
       <c r="G11" t="n">
-        <v>304.6476934300556</v>
+        <v>280.5881280242644</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868625</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J11" t="n">
-        <v>101.1519812836721</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K11" t="n">
-        <v>233.5157259013835</v>
+        <v>579.9337098920171</v>
       </c>
       <c r="L11" t="n">
-        <v>679.1697461082807</v>
+        <v>781.0444013511631</v>
       </c>
       <c r="M11" t="n">
-        <v>934.613577682419</v>
+        <v>1036.488232925301</v>
       </c>
       <c r="N11" t="n">
-        <v>1512.395439421994</v>
+        <v>1300.679221131446</v>
       </c>
       <c r="O11" t="n">
-        <v>2090.177301161569</v>
+        <v>1536.812018472639</v>
       </c>
       <c r="P11" t="n">
-        <v>2257.210179707976</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644748</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S11" t="n">
         <v>2267.593181579087</v>
@@ -5072,19 +5072,19 @@
         <v>2134.775465998312</v>
       </c>
       <c r="U11" t="n">
-        <v>1961.349265566945</v>
+        <v>2041.05733022209</v>
       </c>
       <c r="V11" t="n">
-        <v>1710.519924917422</v>
+        <v>1790.227989572567</v>
       </c>
       <c r="W11" t="n">
-        <v>1437.984816341355</v>
+        <v>1517.6928809965</v>
       </c>
       <c r="X11" t="n">
-        <v>1144.752604774322</v>
+        <v>1517.6928809965</v>
       </c>
       <c r="Y11" t="n">
-        <v>1144.752604774322</v>
+        <v>1517.6928809965</v>
       </c>
     </row>
     <row r="12">
@@ -5112,58 +5112,58 @@
         <v>145.5412832555495</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J12" t="n">
-        <v>60.30911088982452</v>
+        <v>185.1392358768293</v>
       </c>
       <c r="K12" t="n">
-        <v>314.9947161899447</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L12" t="n">
-        <v>864.8383931310202</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M12" t="n">
-        <v>1097.411238198286</v>
+        <v>1673.818508270299</v>
       </c>
       <c r="N12" t="n">
-        <v>1350.54823934813</v>
+        <v>1926.955509420143</v>
       </c>
       <c r="O12" t="n">
-        <v>1928.330101087705</v>
+        <v>2136.306615946195</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551161</v>
+        <v>2284.996269409652</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R12" t="n">
         <v>2326.629995268228</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.133062767425</v>
+        <v>2261.366609461472</v>
       </c>
       <c r="T12" t="n">
-        <v>1985.005230504609</v>
+        <v>2133.036188219543</v>
       </c>
       <c r="U12" t="n">
-        <v>1756.880503901146</v>
+        <v>1904.91146161608</v>
       </c>
       <c r="V12" t="n">
-        <v>1521.728395669403</v>
+        <v>1669.759353384338</v>
       </c>
       <c r="W12" t="n">
-        <v>1267.491038941202</v>
+        <v>1415.521996656136</v>
       </c>
       <c r="X12" t="n">
-        <v>1139.873085429716</v>
+        <v>1207.670496450603</v>
       </c>
       <c r="Y12" t="n">
-        <v>932.1127866647623</v>
+        <v>999.9101976856496</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433558</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C13" t="n">
         <v>450.4203123094964</v>
       </c>
       <c r="D13" t="n">
-        <v>380.537219591208</v>
+        <v>380.5372195912081</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028624</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989994</v>
       </c>
       <c r="G13" t="n">
         <v>158.0071538326183</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839359</v>
+        <v>85.57913268839356</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080081</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105128</v>
+        <v>609.8904447105131</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538484</v>
+        <v>921.3253246538486</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5221,13 +5221,13 @@
         <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
-        <v>1790.110501196415</v>
+        <v>1790.110501196416</v>
       </c>
       <c r="S13" t="n">
         <v>1666.026386125673</v>
       </c>
       <c r="T13" t="n">
-        <v>1521.396324448161</v>
+        <v>1521.396324448162</v>
       </c>
       <c r="U13" t="n">
         <v>1312.487468187754</v>
@@ -5236,13 +5236,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330008</v>
+        <v>928.852903333001</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290308</v>
+        <v>781.096899129031</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795482</v>
+        <v>640.5378666795483</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>967.6645350733334</v>
+        <v>1253.349975475622</v>
       </c>
       <c r="C14" t="n">
-        <v>678.9355648269694</v>
+        <v>1253.349975475622</v>
       </c>
       <c r="D14" t="n">
-        <v>678.9355648269694</v>
+        <v>1253.349975475622</v>
       </c>
       <c r="E14" t="n">
-        <v>678.9355648269694</v>
+        <v>947.7952695714248</v>
       </c>
       <c r="F14" t="n">
-        <v>348.1832067314094</v>
+        <v>617.0429114758647</v>
       </c>
       <c r="G14" t="n">
-        <v>46.68944337289496</v>
+        <v>280.5881280242644</v>
       </c>
       <c r="H14" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J14" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K14" t="n">
-        <v>721.8253333671896</v>
+        <v>721.8253333671897</v>
       </c>
       <c r="L14" t="n">
-        <v>922.9360248263356</v>
+        <v>922.9360248263357</v>
       </c>
       <c r="M14" t="n">
         <v>1178.379856400474</v>
       </c>
       <c r="N14" t="n">
-        <v>1442.570844606618</v>
+        <v>1442.570844606619</v>
       </c>
       <c r="O14" t="n">
-        <v>2020.352706346193</v>
+        <v>1678.703641947812</v>
       </c>
       <c r="P14" t="n">
-        <v>2187.3855848926</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q14" t="n">
-        <v>2309.879447798892</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S14" t="n">
-        <v>2267.593181579088</v>
+        <v>2293.877595208352</v>
       </c>
       <c r="T14" t="n">
-        <v>2267.593181579088</v>
+        <v>2293.877595208352</v>
       </c>
       <c r="U14" t="n">
-        <v>2094.16698114772</v>
+        <v>2120.451394776984</v>
       </c>
       <c r="V14" t="n">
-        <v>1843.337640498197</v>
+        <v>1869.62205412746</v>
       </c>
       <c r="W14" t="n">
-        <v>1570.80253192213</v>
+        <v>1869.62205412746</v>
       </c>
       <c r="X14" t="n">
-        <v>1277.570320355098</v>
+        <v>1869.62205412746</v>
       </c>
       <c r="Y14" t="n">
-        <v>967.6645350733334</v>
+        <v>1559.716268845696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>763.8974496446942</v>
+        <v>911.928407359629</v>
       </c>
       <c r="C15" t="n">
-        <v>589.4444203635672</v>
+        <v>737.475378078502</v>
       </c>
       <c r="D15" t="n">
-        <v>440.510010702316</v>
+        <v>588.5409684172507</v>
       </c>
       <c r="E15" t="n">
-        <v>307.3827470222823</v>
+        <v>429.3035134117953</v>
       </c>
       <c r="F15" t="n">
-        <v>160.8481890491673</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="G15" t="n">
-        <v>103.854063560084</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H15" t="n">
-        <v>85.23577037147687</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J15" t="n">
-        <v>60.30911088982452</v>
+        <v>185.1392358768293</v>
       </c>
       <c r="K15" t="n">
-        <v>161.742116709907</v>
+        <v>368.1473304499299</v>
       </c>
       <c r="L15" t="n">
-        <v>344.4538518005579</v>
+        <v>917.9910073910055</v>
       </c>
       <c r="M15" t="n">
-        <v>577.0266968678234</v>
+        <v>1150.563852458271</v>
       </c>
       <c r="N15" t="n">
-        <v>1035.270098394592</v>
+        <v>1403.700853608115</v>
       </c>
       <c r="O15" t="n">
         <v>1613.051960134167</v>
@@ -5376,31 +5376,31 @@
         <v>2077.019754551161</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R15" t="n">
         <v>2326.629995268228</v>
       </c>
       <c r="S15" t="n">
-        <v>2261.366609461473</v>
+        <v>2261.366609461472</v>
       </c>
       <c r="T15" t="n">
-        <v>2065.238777198656</v>
+        <v>2145.472323892703</v>
       </c>
       <c r="U15" t="n">
-        <v>1837.114050595193</v>
+        <v>1985.145008310128</v>
       </c>
       <c r="V15" t="n">
-        <v>1601.961942363451</v>
+        <v>1749.992900078385</v>
       </c>
       <c r="W15" t="n">
-        <v>1347.724585635249</v>
+        <v>1495.755543350184</v>
       </c>
       <c r="X15" t="n">
-        <v>1139.873085429716</v>
+        <v>1287.904043144651</v>
       </c>
       <c r="Y15" t="n">
-        <v>932.1127866647623</v>
+        <v>1080.143744379697</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433563</v>
+        <v>539.1229485433556</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094969</v>
+        <v>450.4203123094961</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912086</v>
+        <v>380.5372195912078</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028629</v>
+        <v>312.8576727028621</v>
       </c>
       <c r="F16" t="n">
-        <v>246.201271899</v>
+        <v>246.2012718989992</v>
       </c>
       <c r="G16" t="n">
-        <v>158.007153832618</v>
+        <v>158.0071538326181</v>
       </c>
       <c r="H16" t="n">
-        <v>85.5791326883933</v>
+        <v>85.57913268839356</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J16" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K16" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080082</v>
       </c>
       <c r="L16" t="n">
-        <v>609.890444710513</v>
+        <v>609.8904447105132</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538486</v>
+        <v>921.3253246538488</v>
       </c>
       <c r="N16" t="n">
         <v>1232.659405364007</v>
@@ -5473,13 +5473,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330011</v>
+        <v>928.8529033330008</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290312</v>
+        <v>781.0968991290306</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795485</v>
+        <v>640.537866679548</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1338.709817470405</v>
+        <v>1156.994340046475</v>
       </c>
       <c r="C17" t="n">
-        <v>1130.214393918088</v>
+        <v>948.498916494158</v>
       </c>
       <c r="D17" t="n">
         <v>932.4157886994321</v>
@@ -5507,58 +5507,58 @@
         <v>200.3545813302171</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J17" t="n">
-        <v>101.1519812836721</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K17" t="n">
-        <v>233.5157259013835</v>
+        <v>721.8253333671897</v>
       </c>
       <c r="L17" t="n">
-        <v>434.6264173605294</v>
+        <v>922.9360248263357</v>
       </c>
       <c r="M17" t="n">
-        <v>929.6237301260817</v>
+        <v>1178.379856400474</v>
       </c>
       <c r="N17" t="n">
-        <v>1193.814718332226</v>
+        <v>1442.570844606619</v>
       </c>
       <c r="O17" t="n">
-        <v>1771.596580071801</v>
+        <v>1678.703641947812</v>
       </c>
       <c r="P17" t="n">
-        <v>2257.210179707976</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q17" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T17" t="n">
-        <v>2334.472168644748</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2241.279514907428</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V17" t="n">
-        <v>2199.815029489153</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W17" t="n">
-        <v>2007.513467607134</v>
+        <v>1825.797990183204</v>
       </c>
       <c r="X17" t="n">
-        <v>1794.514802734149</v>
+        <v>1612.799325310219</v>
       </c>
       <c r="Y17" t="n">
-        <v>1564.842564146432</v>
+        <v>1383.127086722502</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>813.0765674769744</v>
+        <v>813.2470621750803</v>
       </c>
       <c r="C18" t="n">
-        <v>638.6235381958475</v>
+        <v>638.7940328939533</v>
       </c>
       <c r="D18" t="n">
-        <v>489.6891285345963</v>
+        <v>489.8596232327019</v>
       </c>
       <c r="E18" t="n">
-        <v>330.4516735291407</v>
+        <v>330.6221682272464</v>
       </c>
       <c r="F18" t="n">
-        <v>183.9171155560257</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="G18" t="n">
-        <v>46.68944337289496</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H18" t="n">
-        <v>46.68944337289496</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J18" t="n">
-        <v>181.6405657640153</v>
+        <v>185.1392358768293</v>
       </c>
       <c r="K18" t="n">
-        <v>544.8941562265505</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L18" t="n">
-        <v>727.6058913172014</v>
+        <v>917.9910073910055</v>
       </c>
       <c r="M18" t="n">
-        <v>1305.387753056777</v>
+        <v>1150.563852458271</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.524754206621</v>
+        <v>1403.700853608115</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.306615946196</v>
+        <v>1613.051960134167</v>
       </c>
       <c r="P18" t="n">
-        <v>2284.996269409652</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268228</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767425</v>
+        <v>2188.975236143945</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504609</v>
+        <v>1992.847403881128</v>
       </c>
       <c r="U18" t="n">
-        <v>1756.880503901146</v>
+        <v>1764.722677277665</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.728395669403</v>
+        <v>1529.570569045923</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.491038941202</v>
+        <v>1275.333212317721</v>
       </c>
       <c r="X18" t="n">
-        <v>1189.052203261996</v>
+        <v>1067.481712112188</v>
       </c>
       <c r="Y18" t="n">
-        <v>981.2919044970424</v>
+        <v>859.7214133472344</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>187.4488847898549</v>
+        <v>117.7856025159067</v>
       </c>
       <c r="C19" t="n">
-        <v>178.9797952500427</v>
+        <v>109.3165129760945</v>
       </c>
       <c r="D19" t="n">
-        <v>178.9797952500427</v>
+        <v>109.3165129760945</v>
       </c>
       <c r="E19" t="n">
-        <v>178.9797952500427</v>
+        <v>109.3165129760945</v>
       </c>
       <c r="F19" t="n">
-        <v>178.9797952500427</v>
+        <v>109.3165129760945</v>
       </c>
       <c r="G19" t="n">
-        <v>171.019223877709</v>
+        <v>101.3559416037607</v>
       </c>
       <c r="H19" t="n">
-        <v>171.019223877709</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I19" t="n">
-        <v>51.89598786816291</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
@@ -5701,22 +5701,22 @@
         <v>1003.988400016082</v>
       </c>
       <c r="T19" t="n">
-        <v>939.5918850326178</v>
+        <v>779.1247916445229</v>
       </c>
       <c r="U19" t="n">
-        <v>720.1127643521103</v>
+        <v>650.4494820781623</v>
       </c>
       <c r="V19" t="n">
-        <v>625.8953695343182</v>
+        <v>395.7649938722755</v>
       </c>
       <c r="W19" t="n">
-        <v>496.9452928854524</v>
+        <v>266.8149172234096</v>
       </c>
       <c r="X19" t="n">
-        <v>429.4228353755299</v>
+        <v>199.292459713487</v>
       </c>
       <c r="Y19" t="n">
-        <v>369.0973496200946</v>
+        <v>138.9669739580516</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.994340046476</v>
+        <v>1338.709817470405</v>
       </c>
       <c r="C20" t="n">
-        <v>948.4989164941587</v>
+        <v>1130.214393918088</v>
       </c>
       <c r="D20" t="n">
-        <v>750.7003112755031</v>
+        <v>932.4157886994323</v>
       </c>
       <c r="E20" t="n">
-        <v>525.3791520653535</v>
+        <v>707.0946294892827</v>
       </c>
       <c r="F20" t="n">
-        <v>274.8603406638408</v>
+        <v>456.5758180877699</v>
       </c>
       <c r="G20" t="n">
         <v>200.3545813302171</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J20" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K20" t="n">
-        <v>721.8253333671896</v>
+        <v>434.2897921350811</v>
       </c>
       <c r="L20" t="n">
-        <v>922.9360248263356</v>
+        <v>1012.071653874656</v>
       </c>
       <c r="M20" t="n">
-        <v>1178.379856400474</v>
+        <v>1589.853515614231</v>
       </c>
       <c r="N20" t="n">
-        <v>1442.570844606618</v>
+        <v>1854.044503820376</v>
       </c>
       <c r="O20" t="n">
-        <v>2020.352706346193</v>
+        <v>2090.177301161569</v>
       </c>
       <c r="P20" t="n">
-        <v>2187.3855848926</v>
+        <v>2257.210179707976</v>
       </c>
       <c r="Q20" t="n">
-        <v>2309.879447798892</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.88799975802</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.6953460207</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065224</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183205</v>
+        <v>1825.797990183203</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.79932531022</v>
+        <v>1612.799325310218</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722503</v>
+        <v>1564.842564146432</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.6228944755563</v>
+        <v>774.7007351764984</v>
       </c>
       <c r="C21" t="n">
-        <v>677.1698651944293</v>
+        <v>600.2477058953714</v>
       </c>
       <c r="D21" t="n">
-        <v>528.2354555331781</v>
+        <v>451.3132962341201</v>
       </c>
       <c r="E21" t="n">
-        <v>368.9980005277226</v>
+        <v>292.0758412286646</v>
       </c>
       <c r="F21" t="n">
-        <v>222.4634425546076</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="G21" t="n">
-        <v>85.23577037147687</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147687</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J21" t="n">
-        <v>60.30911088982452</v>
+        <v>185.1392358768293</v>
       </c>
       <c r="K21" t="n">
-        <v>423.5627013523598</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L21" t="n">
-        <v>606.2744364430107</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M21" t="n">
-        <v>980.7428924670457</v>
+        <v>1330.809348347706</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.524754206621</v>
+        <v>1583.94634949755</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.306615946196</v>
+        <v>1793.297456023602</v>
       </c>
       <c r="P21" t="n">
-        <v>2284.996269409652</v>
+        <v>2257.265250440596</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268228</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767425</v>
+        <v>2272.169894993276</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.005230504609</v>
+        <v>2076.04206273046</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901146</v>
+        <v>1847.917336126997</v>
       </c>
       <c r="V21" t="n">
-        <v>1521.728395669403</v>
+        <v>1612.765227895255</v>
       </c>
       <c r="W21" t="n">
-        <v>1427.958132329296</v>
+        <v>1358.527871167053</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.598530260578</v>
+        <v>1150.67637096152</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.838231495624</v>
+        <v>942.9160721965663</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.0090517829512</v>
+        <v>599.186882680191</v>
       </c>
       <c r="C22" t="n">
-        <v>201.5399622431391</v>
+        <v>590.7177931403789</v>
       </c>
       <c r="D22" t="n">
-        <v>201.5399622431391</v>
+        <v>440.6011537280432</v>
       </c>
       <c r="E22" t="n">
-        <v>201.5399622431391</v>
+        <v>440.6011537280432</v>
       </c>
       <c r="F22" t="n">
-        <v>54.65001474522875</v>
+        <v>293.7112062301328</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289496</v>
+        <v>199.3510112111671</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
@@ -5947,13 +5947,13 @@
         <v>877.1662740365598</v>
       </c>
       <c r="W22" t="n">
-        <v>587.7491039995991</v>
+        <v>748.2161973876939</v>
       </c>
       <c r="X22" t="n">
-        <v>451.9830023686263</v>
+        <v>680.6937398777713</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.1904232250962</v>
+        <v>620.368254122336</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1342.418296601505</v>
+        <v>1342.418296601506</v>
       </c>
       <c r="C23" t="n">
-        <v>1133.922873049188</v>
+        <v>1133.922873049189</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305327</v>
+        <v>936.124267830533</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203832</v>
+        <v>710.8031086203833</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188704</v>
+        <v>460.2842972188705</v>
       </c>
       <c r="G23" t="n">
         <v>204.0630604613177</v>
@@ -5990,49 +5990,49 @@
         <v>272.2661094351257</v>
       </c>
       <c r="K23" t="n">
-        <v>404.6298540528371</v>
+        <v>725.5338124982903</v>
       </c>
       <c r="L23" t="n">
-        <v>1019.225147916929</v>
+        <v>966.4683579061932</v>
       </c>
       <c r="M23" t="n">
-        <v>1274.668979491067</v>
+        <v>1221.912189480332</v>
       </c>
       <c r="N23" t="n">
-        <v>1538.859967697212</v>
+        <v>1486.103177686476</v>
       </c>
       <c r="O23" t="n">
-        <v>1932.427815780974</v>
+        <v>1722.235975027669</v>
       </c>
       <c r="P23" t="n">
-        <v>2418.041415417149</v>
+        <v>2207.849574663844</v>
       </c>
       <c r="Q23" t="n">
         <v>2495.303404353921</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199778</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199778</v>
       </c>
       <c r="T23" t="n">
-        <v>2467.311956313049</v>
+        <v>2467.31195631305</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575729</v>
+        <v>2374.11930257573</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620253</v>
+        <v>2203.523508620254</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738234</v>
+        <v>2011.221946738235</v>
       </c>
       <c r="X23" t="n">
         <v>1798.223281865249</v>
       </c>
       <c r="Y23" t="n">
-        <v>1568.551043277532</v>
+        <v>1568.551043277533</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.6368864907296</v>
+        <v>954.1832134893117</v>
       </c>
       <c r="C24" t="n">
-        <v>741.1838572096026</v>
+        <v>779.7301842081847</v>
       </c>
       <c r="D24" t="n">
-        <v>592.2494475483513</v>
+        <v>630.7957745469334</v>
       </c>
       <c r="E24" t="n">
-        <v>433.0119925428959</v>
+        <v>471.5583195414779</v>
       </c>
       <c r="F24" t="n">
-        <v>286.4774345697809</v>
+        <v>325.0237615683628</v>
       </c>
       <c r="G24" t="n">
-        <v>149.2497623866501</v>
+        <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>50.39792250399555</v>
+        <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
         <v>50.39792250399555</v>
       </c>
       <c r="J24" t="n">
-        <v>64.01759002092511</v>
+        <v>188.8477150079299</v>
       </c>
       <c r="K24" t="n">
-        <v>427.2711804834604</v>
+        <v>295.8008008133464</v>
       </c>
       <c r="L24" t="n">
-        <v>609.9829155741113</v>
+        <v>845.644477754422</v>
       </c>
       <c r="M24" t="n">
-        <v>842.5557606413768</v>
+        <v>1469.318768741367</v>
       </c>
       <c r="N24" t="n">
-        <v>1407.177628937673</v>
+        <v>1722.455769891211</v>
       </c>
       <c r="O24" t="n">
-        <v>2006.452431547687</v>
+        <v>2321.730572501225</v>
       </c>
       <c r="P24" t="n">
-        <v>2470.420225964681</v>
+        <v>2470.420225964682</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199778</v>
       </c>
       <c r="R24" t="n">
-        <v>2512.053951823257</v>
+        <v>2519.896125199778</v>
       </c>
       <c r="S24" t="n">
-        <v>2366.557019322454</v>
+        <v>2451.652373306089</v>
       </c>
       <c r="T24" t="n">
-        <v>2170.429187059638</v>
+        <v>2255.524541043273</v>
       </c>
       <c r="U24" t="n">
-        <v>1942.304460456175</v>
+        <v>2027.399814439811</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.152352224433</v>
+        <v>1792.247706208068</v>
       </c>
       <c r="W24" t="n">
-        <v>1452.914995496231</v>
+        <v>1538.010349479866</v>
       </c>
       <c r="X24" t="n">
-        <v>1245.063495290698</v>
+        <v>1330.158849274334</v>
       </c>
       <c r="Y24" t="n">
-        <v>1037.303196525744</v>
+        <v>1122.39855050938</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.03412791140943</v>
+        <v>602.8953618112917</v>
       </c>
       <c r="C25" t="n">
-        <v>63.5650383715973</v>
+        <v>594.4262722714795</v>
       </c>
       <c r="D25" t="n">
-        <v>63.5650383715973</v>
+        <v>444.3096328591438</v>
       </c>
       <c r="E25" t="n">
-        <v>63.5650383715973</v>
+        <v>444.3096328591438</v>
       </c>
       <c r="F25" t="n">
-        <v>63.5650383715973</v>
+        <v>297.4196853612334</v>
       </c>
       <c r="G25" t="n">
-        <v>55.6044669992635</v>
+        <v>203.0594903422677</v>
       </c>
       <c r="H25" t="n">
-        <v>55.6044669992635</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="I25" t="n">
-        <v>55.6044669992635</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J25" t="n">
         <v>50.39792250399555</v>
@@ -6172,25 +6172,25 @@
         <v>1212.014540911973</v>
       </c>
       <c r="S25" t="n">
-        <v>1118.704018799679</v>
+        <v>1168.163972535277</v>
       </c>
       <c r="T25" t="n">
-        <v>893.8404104281203</v>
+        <v>1103.767457551813</v>
       </c>
       <c r="U25" t="n">
-        <v>604.6980074736649</v>
+        <v>975.0921479854525</v>
       </c>
       <c r="V25" t="n">
-        <v>510.4806126558728</v>
+        <v>880.8747531676604</v>
       </c>
       <c r="W25" t="n">
-        <v>221.0634426189122</v>
+        <v>751.9246765187945</v>
       </c>
       <c r="X25" t="n">
-        <v>153.5409851089897</v>
+        <v>684.402219008872</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.21549935355435</v>
+        <v>624.0767332534366</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>331.4985125508312</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946167</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J26" t="n">
-        <v>295.4084494248006</v>
+        <v>295.4084494248007</v>
       </c>
       <c r="K26" t="n">
-        <v>748.6761524879651</v>
+        <v>748.6761524879654</v>
       </c>
       <c r="L26" t="n">
         <v>1363.271446352057</v>
       </c>
       <c r="M26" t="n">
-        <v>2063.733676084099</v>
+        <v>1618.715277926196</v>
       </c>
       <c r="N26" t="n">
-        <v>2760.898119458108</v>
+        <v>2315.879721300205</v>
       </c>
       <c r="O26" t="n">
-        <v>2997.030916799301</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P26" t="n">
-        <v>3364.966574147586</v>
+        <v>3364.966574147587</v>
       </c>
       <c r="Q26" t="n">
-        <v>3652.420403837664</v>
+        <v>3652.420403837665</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683521</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.13413761786</v>
+        <v>3610.134137617861</v>
       </c>
       <c r="T26" t="n">
         <v>3477.316422037085</v>
@@ -6300,28 +6300,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J27" t="n">
-        <v>87.15993001059996</v>
+        <v>211.9900549976048</v>
       </c>
       <c r="K27" t="n">
-        <v>450.4135204731352</v>
+        <v>575.2436454601402</v>
       </c>
       <c r="L27" t="n">
-        <v>633.1252555637861</v>
+        <v>757.9553805507913</v>
       </c>
       <c r="M27" t="n">
-        <v>1326.746113743551</v>
+        <v>990.5282256180569</v>
       </c>
       <c r="N27" t="n">
-        <v>1579.883114893396</v>
+        <v>1697.362504136454</v>
       </c>
       <c r="O27" t="n">
         <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.681405079501</v>
+        <v>2370.6814050795</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6370,31 +6370,31 @@
         <v>339.7084918236378</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H28" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486941</v>
+        <v>147.074227348694</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287833</v>
+        <v>347.1622746287832</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312883</v>
+        <v>636.7412638312882</v>
       </c>
       <c r="M28" t="n">
         <v>948.1761437746238</v>
       </c>
       <c r="N28" t="n">
-        <v>1259.510224484782</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O28" t="n">
         <v>1537.064338418641</v>
@@ -6409,7 +6409,7 @@
         <v>1816.961320317191</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246449</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T28" t="n">
         <v>1548.247143568937</v>
@@ -6418,13 +6418,13 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537764</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498065</v>
+        <v>807.9477182498061</v>
       </c>
       <c r="Y28" t="n">
         <v>667.3886858003237</v>
@@ -6455,37 +6455,37 @@
         <v>331.4985125508312</v>
       </c>
       <c r="H29" t="n">
-        <v>97.5998278994617</v>
+        <v>97.59982789946172</v>
       </c>
       <c r="I29" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J29" t="n">
-        <v>295.4084494248006</v>
+        <v>128.0028004044476</v>
       </c>
       <c r="K29" t="n">
-        <v>748.6761524879651</v>
+        <v>488.7905923491201</v>
       </c>
       <c r="L29" t="n">
-        <v>1363.271446352057</v>
+        <v>1103.385886213212</v>
       </c>
       <c r="M29" t="n">
-        <v>1618.715277926195</v>
+        <v>1803.848115945254</v>
       </c>
       <c r="N29" t="n">
-        <v>2266.227997720101</v>
+        <v>2501.012559319263</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.352974511412</v>
+        <v>3114.137536110574</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.966574147586</v>
+        <v>3599.751135746749</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.013124683521</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683521</v>
       </c>
       <c r="S29" t="n">
         <v>3610.13413761786</v>
@@ -6537,7 +6537,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J30" t="n">
         <v>211.9900549976047</v>
@@ -6546,19 +6546,19 @@
         <v>575.24364546014</v>
       </c>
       <c r="L30" t="n">
-        <v>1125.087322401215</v>
+        <v>1125.087322401216</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.660167468481</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N30" t="n">
-        <v>2085.346119218443</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O30" t="n">
-        <v>2294.697225744495</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.386879207951</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.133819173087</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641309</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302716</v>
+        <v>477.2711314302715</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119833</v>
+        <v>407.3880387119831</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236376</v>
+        <v>339.7084918236374</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197746</v>
+        <v>273.0520910197744</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533934</v>
+        <v>184.8579729533932</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4299518091686</v>
+        <v>112.4299518091684</v>
       </c>
       <c r="I31" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J31" t="n">
         <v>147.0742273486941</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484783</v>
@@ -6658,13 +6658,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537758</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498058</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003235</v>
+        <v>667.3886858003233</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1582.292511914892</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.260360002188</v>
+        <v>1304.260360002189</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979917</v>
+        <v>998.705654097992</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024316</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G32" t="n">
-        <v>331.498512550831</v>
+        <v>331.4985125508312</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946166</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I32" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248006</v>
+        <v>128.0028004044476</v>
       </c>
       <c r="K32" t="n">
-        <v>748.6761524879651</v>
+        <v>581.2705034676121</v>
       </c>
       <c r="L32" t="n">
-        <v>1363.271446352057</v>
+        <v>1195.865797331704</v>
       </c>
       <c r="M32" t="n">
-        <v>1618.715277926195</v>
+        <v>1896.328027063747</v>
       </c>
       <c r="N32" t="n">
-        <v>2266.227997720101</v>
+        <v>2593.492470437755</v>
       </c>
       <c r="O32" t="n">
-        <v>2879.352974511412</v>
+        <v>3206.617447229066</v>
       </c>
       <c r="P32" t="n">
-        <v>3364.966574147586</v>
+        <v>3599.751135746749</v>
       </c>
       <c r="Q32" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R32" t="n">
         <v>3677.01312468352</v>
@@ -6740,10 +6740,10 @@
         <v>2780.525772380127</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.293560813094</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.38777553133</v>
+        <v>2177.387775531331</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J33" t="n">
         <v>211.9900549976047</v>
@@ -6783,19 +6783,19 @@
         <v>575.24364546014</v>
       </c>
       <c r="L33" t="n">
-        <v>757.9553805507909</v>
+        <v>1125.087322401216</v>
       </c>
       <c r="M33" t="n">
-        <v>1177.653067244983</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N33" t="n">
-        <v>1905.339018994945</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O33" t="n">
-        <v>2114.690125520997</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P33" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641313</v>
       </c>
       <c r="C34" t="n">
         <v>477.2711314302717</v>
@@ -6841,31 +6841,31 @@
         <v>407.3880387119834</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236377</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197748</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533935</v>
       </c>
       <c r="H34" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287836</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N34" t="n">
         <v>1259.510224484783</v>
@@ -6895,13 +6895,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537762</v>
       </c>
       <c r="X34" t="n">
-        <v>807.947718249806</v>
+        <v>807.9477182498063</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003236</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C35" t="n">
         <v>1204.238717623145</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761028</v>
+        <v>993.0855527761017</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375663</v>
+        <v>754.4098339375653</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076665</v>
+        <v>490.5364629076656</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J35" t="n">
         <v>108.4035068467937</v>
       </c>
       <c r="K35" t="n">
-        <v>561.6712099099582</v>
+        <v>240.7672514645053</v>
       </c>
       <c r="L35" t="n">
-        <v>762.7819013691042</v>
+        <v>855.3625453285972</v>
       </c>
       <c r="M35" t="n">
-        <v>1338.909450639947</v>
+        <v>1522.882035911803</v>
       </c>
       <c r="N35" t="n">
-        <v>2006.428941223153</v>
+        <v>2190.401526495008</v>
       </c>
       <c r="O35" t="n">
-        <v>2242.561738564346</v>
+        <v>2426.534323836201</v>
       </c>
       <c r="P35" t="n">
-        <v>2409.594617110753</v>
+        <v>2619.786457864058</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.04844680083</v>
@@ -6965,7 +6965,7 @@
         <v>2697.04844680083</v>
       </c>
       <c r="T35" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U35" t="n">
         <v>2524.562504920008</v>
@@ -6974,13 +6974,13 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459851</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J36" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>293.8237672600334</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L36" t="n">
-        <v>843.6674442011089</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>1143.574679723662</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N36" t="n">
-        <v>1811.094170306868</v>
+        <v>1591.197875060672</v>
       </c>
       <c r="O36" t="n">
-        <v>2410.368972916882</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P36" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.534525615434</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.3768636968013</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C37" t="n">
-        <v>183.5532145286022</v>
+        <v>84.60979949061505</v>
       </c>
       <c r="D37" t="n">
-        <v>180.5491088759742</v>
+        <v>81.60569383798709</v>
       </c>
       <c r="E37" t="n">
-        <v>179.7485490532889</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="F37" t="n">
-        <v>179.7485490532889</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="G37" t="n">
-        <v>158.4334180525682</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K37" t="n">
         <v>175.3921171012701</v>
@@ -7102,13 +7102,13 @@
         <v>386.3342071889392</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O37" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P37" t="n">
         <v>1197.433943491319</v>
@@ -7120,25 +7120,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>1011.239925579203</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>933.4888509673523</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U37" t="n">
-        <v>791.4589817726047</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V37" t="n">
-        <v>683.8870273264256</v>
+        <v>732.0561460481464</v>
       </c>
       <c r="W37" t="n">
-        <v>394.469857289465</v>
+        <v>442.6389760111858</v>
       </c>
       <c r="X37" t="n">
-        <v>313.5928401511554</v>
+        <v>214.6494251131684</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.9127947673331</v>
+        <v>140.9693797293461</v>
       </c>
     </row>
     <row r="38">
@@ -7154,61 +7154,61 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761017</v>
+        <v>993.0855527761016</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375653</v>
+        <v>754.4098339375652</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076655</v>
+        <v>490.5364629076654</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J38" t="n">
-        <v>108.4035068467937</v>
+        <v>108.4035068467938</v>
       </c>
       <c r="K38" t="n">
-        <v>240.7672514645051</v>
+        <v>240.7672514645053</v>
       </c>
       <c r="L38" t="n">
-        <v>855.362545328597</v>
+        <v>855.3625453285972</v>
       </c>
       <c r="M38" t="n">
-        <v>1340.653052721033</v>
+        <v>1522.882035911803</v>
       </c>
       <c r="N38" t="n">
-        <v>1604.844040927178</v>
+        <v>2190.401526495009</v>
       </c>
       <c r="O38" t="n">
-        <v>2217.969017718489</v>
+        <v>2452.753579317652</v>
       </c>
       <c r="P38" t="n">
-        <v>2385.001896264896</v>
+        <v>2619.786457864059</v>
       </c>
       <c r="Q38" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="T38" t="n">
         <v>2631.109718285715</v>
       </c>
       <c r="U38" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V38" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W38" t="n">
         <v>2134.956029825738</v>
@@ -7245,31 +7245,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J39" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K39" t="n">
-        <v>555.6443519024862</v>
+        <v>555.6443519024863</v>
       </c>
       <c r="L39" t="n">
-        <v>738.3560869931371</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M39" t="n">
-        <v>1242.679028203485</v>
+        <v>1424.626209428957</v>
       </c>
       <c r="N39" t="n">
-        <v>1495.81602935333</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.090831963344</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P39" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.534525615434</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>225.55668466836</v>
+        <v>499.6019312162168</v>
       </c>
       <c r="C40" t="n">
-        <v>203.7330355001609</v>
+        <v>378.6122807482332</v>
       </c>
       <c r="D40" t="n">
-        <v>200.728929847533</v>
+        <v>375.6081750956052</v>
       </c>
       <c r="E40" t="n">
-        <v>199.9283700248477</v>
+        <v>374.8076152729199</v>
       </c>
       <c r="F40" t="n">
-        <v>199.9283700248477</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="G40" t="n">
-        <v>178.6132390241269</v>
+        <v>59.49000301458098</v>
       </c>
       <c r="H40" t="n">
-        <v>173.0642049455626</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="K40" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O40" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P40" t="n">
         <v>1197.433943491319</v>
@@ -7357,25 +7357,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1031.419746550762</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T40" t="n">
-        <v>953.6686719389111</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>811.6388027441635</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V40" t="n">
-        <v>704.0668482979844</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W40" t="n">
-        <v>561.7622120207316</v>
+        <v>688.6949248088806</v>
       </c>
       <c r="X40" t="n">
-        <v>480.8851948824221</v>
+        <v>607.817907670571</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.0926157388919</v>
+        <v>534.1378622867487</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761028</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375652</v>
+        <v>754.4098339375663</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076654</v>
+        <v>490.5364629076665</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467938</v>
       </c>
       <c r="K41" t="n">
-        <v>729.0768589303112</v>
+        <v>561.6712099099584</v>
       </c>
       <c r="L41" t="n">
-        <v>1343.672152794403</v>
+        <v>762.7819013691044</v>
       </c>
       <c r="M41" t="n">
-        <v>1609.256351834689</v>
+        <v>1018.225732943243</v>
       </c>
       <c r="N41" t="n">
-        <v>1873.447340040833</v>
+        <v>1310.856040683268</v>
       </c>
       <c r="O41" t="n">
-        <v>2109.580137382026</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P41" t="n">
-        <v>2595.193737018201</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q41" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285716</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920009</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336146</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825737</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J42" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>293.8237672600333</v>
+        <v>555.6443519024863</v>
       </c>
       <c r="L42" t="n">
-        <v>843.6674442011088</v>
+        <v>738.3560869931373</v>
       </c>
       <c r="M42" t="n">
-        <v>1424.626209428957</v>
+        <v>1349.980654298532</v>
       </c>
       <c r="N42" t="n">
-        <v>1677.763210578802</v>
+        <v>1603.117655448377</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.114317104853</v>
+        <v>2202.392458058391</v>
       </c>
       <c r="P42" t="n">
         <v>2351.082111521847</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>230.0680315191304</v>
+        <v>499.6019312162168</v>
       </c>
       <c r="C43" t="n">
-        <v>84.60979949061493</v>
+        <v>330.6657482883098</v>
       </c>
       <c r="D43" t="n">
-        <v>81.605693837987</v>
+        <v>180.5491088759741</v>
       </c>
       <c r="E43" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="F43" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458091</v>
+        <v>59.49000301458098</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="K43" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O43" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P43" t="n">
         <v>1197.433943491319</v>
@@ -7591,28 +7591,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R43" t="n">
-        <v>1093.136221406615</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S43" t="n">
-        <v>1035.931093401533</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>958.1800187896814</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>816.1501495949339</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V43" t="n">
-        <v>708.5781951487547</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W43" t="n">
-        <v>566.2735588715019</v>
+        <v>688.6949248088806</v>
       </c>
       <c r="X43" t="n">
-        <v>485.3965417331924</v>
+        <v>607.817907670571</v>
       </c>
       <c r="Y43" t="n">
-        <v>264.6039625896623</v>
+        <v>534.1378622867487</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7625,40 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623143</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761009</v>
+        <v>993.0855527761014</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375646</v>
+        <v>754.4098339375648</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076648</v>
+        <v>490.5364629076651</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467937</v>
       </c>
       <c r="K44" t="n">
-        <v>408.1729004848581</v>
+        <v>561.6712099099584</v>
       </c>
       <c r="L44" t="n">
-        <v>609.2835919440041</v>
+        <v>762.7819013691044</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7274235181424</v>
+        <v>1018.225732943243</v>
       </c>
       <c r="N44" t="n">
-        <v>1310.856040683266</v>
+        <v>1685.745223526448</v>
       </c>
       <c r="O44" t="n">
         <v>1923.981017474577</v>
@@ -7676,7 +7676,7 @@
         <v>2697.048446800829</v>
       </c>
       <c r="T44" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U44" t="n">
         <v>2524.562504920007</v>
@@ -7719,31 +7719,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459849</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>192.3907614399509</v>
+        <v>67.56063645294618</v>
       </c>
       <c r="K45" t="n">
-        <v>293.8237672600333</v>
+        <v>168.9936422730287</v>
       </c>
       <c r="L45" t="n">
-        <v>476.5355023506843</v>
+        <v>476.0551891404567</v>
       </c>
       <c r="M45" t="n">
-        <v>709.1083474179497</v>
+        <v>1143.574679723662</v>
       </c>
       <c r="N45" t="n">
-        <v>1376.627838001155</v>
+        <v>1811.094170306867</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.114317104853</v>
+        <v>2410.368972916881</v>
       </c>
       <c r="P45" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>352.4893974565087</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C46" t="n">
-        <v>330.6657482883095</v>
+        <v>84.60979949061505</v>
       </c>
       <c r="D46" t="n">
-        <v>327.6616426356816</v>
+        <v>81.60569383798709</v>
       </c>
       <c r="E46" t="n">
-        <v>326.8610828129962</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="F46" t="n">
-        <v>326.8610828129962</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="G46" t="n">
-        <v>158.4334180525677</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H46" t="n">
-        <v>152.8843839740033</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K46" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O46" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P46" t="n">
         <v>1197.433943491319</v>
@@ -7828,28 +7828,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R46" t="n">
-        <v>1215.557587343994</v>
+        <v>1116.614172306007</v>
       </c>
       <c r="S46" t="n">
-        <v>1158.352459338911</v>
+        <v>1059.409044300924</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.60138472706</v>
+        <v>981.6579696890731</v>
       </c>
       <c r="U46" t="n">
-        <v>791.4589817726045</v>
+        <v>839.6281004943255</v>
       </c>
       <c r="V46" t="n">
-        <v>683.8870273264254</v>
+        <v>732.0561460481464</v>
       </c>
       <c r="W46" t="n">
-        <v>541.5823910491725</v>
+        <v>589.7515097708936</v>
       </c>
       <c r="X46" t="n">
-        <v>460.705373910863</v>
+        <v>508.874492632584</v>
       </c>
       <c r="Y46" t="n">
-        <v>387.0253285270406</v>
+        <v>288.0819134890539</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>180.8205403740207</v>
       </c>
       <c r="L11" t="n">
-        <v>247.0134633815669</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>316.7584581145763</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>345.1000650488708</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>154.8006055353917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>346.4738989117105</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>372.152277993458</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>345.1000650488708</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>203.3149681418698</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.6887615853734</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>82.39907954850315</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>207.1781821989137</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>372.152277993458</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>241.9732133246606</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>345.1000650488708</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>203.3149681418698</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>122.5570251254452</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>188.7741878393838</v>
       </c>
       <c r="M18" t="n">
-        <v>348.6959764366765</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>372.152277993458</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>33.7054719326712</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>380.4759295761908</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>325.5939698640774</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>345.1000650488708</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.6887615853734</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>143.3288999563329</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>327.9241016057887</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>372.152277993458</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>28.0111302717733</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>40.22611509975442</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>159.0253037803735</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>5.575838369024311</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>395.0519655754338</v>
       </c>
       <c r="N24" t="n">
-        <v>314.6311789358103</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>330.6469251212261</v>
       </c>
       <c r="P26" t="n">
-        <v>202.9320997998767</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,13 +9960,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>458.2800781500531</v>
       </c>
       <c r="O27" t="n">
-        <v>118.6660497404637</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>230.7313609363242</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>387.1936682704657</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>87.43973284659529</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.6374148788283</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>387.1936682704657</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>228.3846565366416</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>189.0149915423502</v>
+        <v>87.43973284659529</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>323.9229471683889</v>
+        <v>416.238039403098</v>
       </c>
       <c r="N35" t="n">
-        <v>407.4025276535969</v>
+        <v>407.4025276535968</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>26.48409644590905</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>68.01453581342236</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>418.5681711448093</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659586</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,22 +10829,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>232.1683594124224</v>
+        <v>416.2380394030982</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>407.402527653597</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>26.48409644590961</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>274.4950466091746</v>
+        <v>87.43973284659575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>10.24279542035077</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>28.72658538775784</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>351.9049698591749</v>
+        <v>382.8805275132623</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>183.7753827868473</v>
+        <v>407.4025276535967</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>2.12423899690495</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>125.605870481593</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>439.3400459756968</v>
       </c>
       <c r="N45" t="n">
         <v>418.568171144809</v>
       </c>
       <c r="O45" t="n">
-        <v>304.1771440178248</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>84.08181167283587</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>275.251830393576</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170842</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>78.91098400859366</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
         <v>306.8067274289467</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451548</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.61140989215493</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048557</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173332</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.02156949297185</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>179.8983226496905</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786054</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>127.8399954518292</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>179.8983226496901</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>179.8983226496909</v>
       </c>
     </row>
     <row r="21">
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623152.9572494021</v>
+        <v>623152.9572494018</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692408.3050261491</v>
+        <v>692408.305026149</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692408.3050261491</v>
+        <v>692408.305026149</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756252.4662551145</v>
+        <v>756252.4662551144</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>721504.7005313542</v>
+        <v>721504.7005313541</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491129</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491127</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="E2" t="n">
-        <v>699426.1212067332</v>
+        <v>699426.1212067335</v>
       </c>
       <c r="F2" t="n">
         <v>699426.1212067332</v>
       </c>
       <c r="G2" t="n">
-        <v>786553.8167968342</v>
+        <v>786553.8167968341</v>
       </c>
       <c r="H2" t="n">
         <v>786553.8167968341</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="J2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176772</v>
+        <v>800515.725617677</v>
       </c>
       <c r="L2" t="n">
         <v>800515.7256176772</v>
       </c>
       <c r="M2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="N2" t="n">
         <v>800515.7256176766</v>
       </c>
-      <c r="N2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="O2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="P2" t="n">
         <v>800515.7256176764</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150431</v>
+        <v>793631.6724150432</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021374298698698e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168549</v>
+        <v>63544.9689816855</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776748</v>
+        <v>12327.03098776754</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.1800532311</v>
+        <v>75688.18005323113</v>
       </c>
       <c r="K3" t="n">
-        <v>3.021374298698698e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168552</v>
+        <v>63544.96898168551</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.32893797</v>
+        <v>137355.3289379699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>154325.0722680947</v>
       </c>
       <c r="F4" t="n">
-        <v>154325.0722680948</v>
+        <v>154325.0722680947</v>
       </c>
       <c r="G4" t="n">
         <v>205135.3026775317</v>
@@ -26439,19 +26439,19 @@
         <v>210892.2080352272</v>
       </c>
       <c r="J4" t="n">
-        <v>200854.7344410865</v>
+        <v>200854.7344410864</v>
       </c>
       <c r="K4" t="n">
         <v>200854.7344410865</v>
       </c>
       <c r="L4" t="n">
-        <v>200854.7344410866</v>
+        <v>200854.7344410865</v>
       </c>
       <c r="M4" t="n">
+        <v>208992.6487667406</v>
+      </c>
+      <c r="N4" t="n">
         <v>208992.6487667407</v>
-      </c>
-      <c r="N4" t="n">
-        <v>208992.6487667406</v>
       </c>
       <c r="O4" t="n">
         <v>208992.6487667407</v>
@@ -26479,34 +26479,34 @@
         <v>57243.92344591297</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591298</v>
+        <v>57243.92344591297</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256463</v>
+        <v>63921.62594256461</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256463</v>
+        <v>63921.62594256461</v>
       </c>
       <c r="I5" t="n">
-        <v>66740.07008220107</v>
+        <v>66740.07008220108</v>
       </c>
       <c r="J5" t="n">
-        <v>77650.54597770231</v>
+        <v>77650.54597770234</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770231</v>
+        <v>77650.54597770232</v>
       </c>
       <c r="L5" t="n">
         <v>77650.54597770231</v>
       </c>
       <c r="M5" t="n">
+        <v>68321.30794187219</v>
+      </c>
+      <c r="N5" t="n">
         <v>68321.3079418722</v>
       </c>
-      <c r="N5" t="n">
-        <v>68321.30794187219</v>
-      </c>
       <c r="O5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.3079418722</v>
       </c>
       <c r="P5" t="n">
         <v>68321.30794187219</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323517.5802532923</v>
+        <v>323513.1666754241</v>
       </c>
       <c r="C6" t="n">
-        <v>323517.5802532924</v>
+        <v>323513.1666754237</v>
       </c>
       <c r="D6" t="n">
-        <v>323517.5802532922</v>
+        <v>323513.1666754235</v>
       </c>
       <c r="E6" t="n">
-        <v>-305774.5469223176</v>
+        <v>-306033.7510361916</v>
       </c>
       <c r="F6" t="n">
-        <v>487857.1254927253</v>
+        <v>487597.9213788513</v>
       </c>
       <c r="G6" t="n">
-        <v>453951.9191950524</v>
+        <v>453916.1194288451</v>
       </c>
       <c r="H6" t="n">
-        <v>517496.8881767378</v>
+        <v>517461.0884105305</v>
       </c>
       <c r="I6" t="n">
-        <v>510556.4165124807</v>
+        <v>510556.4165124805</v>
       </c>
       <c r="J6" t="n">
         <v>446322.2651456569</v>
       </c>
       <c r="K6" t="n">
-        <v>522010.4451988884</v>
+        <v>522010.4451988881</v>
       </c>
       <c r="L6" t="n">
         <v>458465.4762172029</v>
       </c>
       <c r="M6" t="n">
-        <v>385846.4399710937</v>
+        <v>385846.439971094</v>
       </c>
       <c r="N6" t="n">
-        <v>523201.7689090634</v>
+        <v>523201.7689090637</v>
       </c>
       <c r="O6" t="n">
-        <v>523201.7689090637</v>
+        <v>523201.7689090639</v>
       </c>
       <c r="P6" t="n">
         <v>523201.7689090637</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542138</v>
@@ -26707,13 +26707,13 @@
         <v>158.8624224542138</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="K2" t="n">
+        <v>79.4312112271069</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.43121122710691</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.43121122710696</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973011</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="G4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="H4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999443</v>
+        <v>629.9740312999444</v>
       </c>
       <c r="J4" t="n">
-        <v>919.25328117088</v>
+        <v>919.2532811708802</v>
       </c>
       <c r="K4" t="n">
-        <v>919.25328117088</v>
+        <v>919.2532811708802</v>
       </c>
       <c r="L4" t="n">
-        <v>919.25328117088</v>
+        <v>919.2532811708801</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N4" t="n">
+        <v>674.2621117002077</v>
+      </c>
+      <c r="O4" t="n">
+        <v>674.2621117002077</v>
+      </c>
+      <c r="P4" t="n">
         <v>674.2621117002074</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2621117002072</v>
-      </c>
-      <c r="P4" t="n">
-        <v>674.2621117002072</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710686</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875731</v>
+        <v>46.35598913875754</v>
       </c>
       <c r="J4" t="n">
-        <v>289.2792498709357</v>
+        <v>289.2792498709358</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905146</v>
+        <v>338.6268726905142</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710686</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="12">
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.11943691067842</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,10 +28217,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>67.11943691067836</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>79.43121122710691</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710735</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="15">
@@ -28412,19 +28412,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.84908941216764</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>67.11943691067856</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="17">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.5235759894348</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>128.1185378810642</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>158.8624224542138</v>
       </c>
       <c r="C19" t="n">
         <v>158.8624224542138</v>
@@ -28737,13 +28737,13 @@
         <v>158.8624224542138</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1349521598894</v>
+        <v>97.01511891133231</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,13 +28773,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>158.8624224542138</v>
       </c>
-      <c r="U19" t="n">
-        <v>68.96664945120838</v>
-      </c>
       <c r="V19" t="n">
-        <v>158.8624224542138</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>158.8624224542138</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>82.36271226083815</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28940,10 +28940,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>158.8624224542138</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>7.416979155446427</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>158.8624224542138</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28971,16 +28971,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>158.8624224542138</v>
+        <v>73.32679504404821</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29019,13 +29019,13 @@
         <v>158.8624224542138</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>158.8624224542138</v>
       </c>
       <c r="X22" t="n">
-        <v>91.30121477437405</v>
+        <v>158.8624224542138</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>158.8624224542138</v>
       </c>
     </row>
     <row r="23">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46.08353671520268</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>76.4806488010435</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29199,25 +29199,25 @@
         <v>158.8624224542138</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>158.8624224542138</v>
+        <v>73.32679504404821</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,19 +29244,19 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>109.8970682559718</v>
+        <v>158.8624224542138</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>158.8624224542138</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>158.8624224542138</v>
       </c>
       <c r="V25" t="n">
         <v>158.8624224542138</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>158.8624224542138</v>
       </c>
       <c r="X25" t="n">
         <v>158.8624224542138</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710691</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="35">
@@ -30159,13 +30159,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="H37" t="n">
-        <v>47.68742753450337</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I37" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T37" t="n">
         <v>145.6414084221107</v>
@@ -30201,13 +30201,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450351</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>145.6414084221107</v>
@@ -30381,7 +30381,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6414084221107</v>
+        <v>47.46706713532407</v>
       </c>
       <c r="D40" t="n">
         <v>145.6414084221107</v>
@@ -30390,19 +30390,19 @@
         <v>145.6414084221107</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
-        <v>19.97802276184308</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T40" t="n">
         <v>145.6414084221107</v>
@@ -30447,7 +30447,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="41">
@@ -30618,13 +30618,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>23.24317139039755</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450357</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30639,7 +30639,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
         <v>145.6414084221107</v>
@@ -30684,7 +30684,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="44">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>145.6414084221107</v>
@@ -30867,16 +30867,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="I46" t="n">
-        <v>19.9780227618437</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.1971522780048</v>
+        <v>23.24317139039758</v>
       </c>
       <c r="S46" t="n">
         <v>145.6414084221107</v>
@@ -30909,7 +30909,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V46" t="n">
         <v>145.6414084221107</v>
@@ -30921,7 +30921,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31762,37 +31762,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L11" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P11" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H12" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J12" t="n">
         <v>140.5948665827572</v>
@@ -31856,22 +31856,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P12" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q12" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S12" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T12" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H13" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I13" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J13" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
@@ -31926,7 +31926,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M13" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N13" t="n">
         <v>190.9154857978651</v>
@@ -31941,13 +31941,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S13" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U13" t="n">
         <v>0.06805043158006245</v>
@@ -31999,37 +31999,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K14" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L14" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M14" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P14" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R14" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H15" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J15" t="n">
         <v>140.5948665827572</v>
@@ -32093,22 +32093,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P15" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q15" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S15" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T15" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H16" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I16" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32163,7 +32163,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M16" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N16" t="n">
         <v>190.9154857978651</v>
@@ -32178,13 +32178,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U16" t="n">
         <v>0.06805043158006245</v>
@@ -32236,37 +32236,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L17" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P17" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H18" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J18" t="n">
         <v>140.5948665827572</v>
@@ -32330,22 +32330,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P18" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q18" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S18" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T18" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H19" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I19" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
@@ -32400,7 +32400,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M19" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N19" t="n">
         <v>190.9154857978651</v>
@@ -32415,13 +32415,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S19" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U19" t="n">
         <v>0.06805043158006245</v>
@@ -32473,37 +32473,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L20" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P20" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H21" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J21" t="n">
         <v>140.5948665827572</v>
@@ -32567,22 +32567,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q21" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S21" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T21" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H22" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I22" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
@@ -32637,7 +32637,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M22" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N22" t="n">
         <v>190.9154857978651</v>
@@ -32652,13 +32652,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S22" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U22" t="n">
         <v>0.06805043158006245</v>
@@ -32710,37 +32710,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L23" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P23" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H24" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J24" t="n">
         <v>140.5948665827572</v>
@@ -32804,22 +32804,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P24" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q24" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S24" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T24" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H25" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I25" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
@@ -32874,7 +32874,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M25" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N25" t="n">
         <v>190.9154857978651</v>
@@ -32889,13 +32889,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S25" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U25" t="n">
         <v>0.06805043158006245</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.781290670943921</v>
+        <v>2.781290670943922</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380445</v>
       </c>
       <c r="I26" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915657</v>
       </c>
       <c r="J26" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830269</v>
       </c>
       <c r="K26" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840832</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549834</v>
       </c>
       <c r="M26" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243823</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432018</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340031</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950748</v>
+        <v>399.953075095075</v>
       </c>
       <c r="Q26" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418957</v>
       </c>
       <c r="R26" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086813</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413469</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H27" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266847</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281901</v>
       </c>
       <c r="J27" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K27" t="n">
-        <v>240.2990206108059</v>
+        <v>240.299020610806</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522489</v>
+        <v>323.111687952249</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465289</v>
+        <v>377.056099646529</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387317</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121735</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693368</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790477</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988868</v>
       </c>
       <c r="S27" t="n">
-        <v>27.64120792804308</v>
+        <v>27.6412079280431</v>
       </c>
       <c r="T27" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633203</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678793</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H28" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780775</v>
       </c>
       <c r="J28" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635754</v>
       </c>
       <c r="K28" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655329</v>
       </c>
       <c r="L28" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100568</v>
       </c>
       <c r="M28" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N28" t="n">
-        <v>190.9154857978651</v>
+        <v>190.9154857978652</v>
       </c>
       <c r="O28" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011351</v>
       </c>
       <c r="P28" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q28" t="n">
-        <v>104.4687542139924</v>
+        <v>104.4687542139925</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916476</v>
       </c>
       <c r="S28" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982993</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438218</v>
+        <v>5.33061714043822</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006248</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33184,37 +33184,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L29" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P29" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H30" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J30" t="n">
         <v>140.5948665827572</v>
@@ -33278,22 +33278,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P30" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q30" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S30" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T30" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H31" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I31" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
@@ -33348,7 +33348,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M31" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N31" t="n">
         <v>190.9154857978651</v>
@@ -33363,13 +33363,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S31" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U31" t="n">
         <v>0.06805043158006245</v>
@@ -33421,37 +33421,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L32" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P32" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H33" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J33" t="n">
         <v>140.5948665827572</v>
@@ -33515,22 +33515,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P33" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q33" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S33" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T33" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,13 +33570,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H34" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I34" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J34" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
@@ -33585,7 +33585,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M34" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N34" t="n">
         <v>190.9154857978651</v>
@@ -33600,13 +33600,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S34" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U34" t="n">
         <v>0.06805043158006245</v>
@@ -33658,37 +33658,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L35" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P35" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H36" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J36" t="n">
         <v>140.5948665827572</v>
@@ -33752,22 +33752,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q36" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S36" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T36" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H37" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I37" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J37" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
@@ -33822,7 +33822,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M37" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N37" t="n">
         <v>190.9154857978651</v>
@@ -33837,13 +33837,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S37" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U37" t="n">
         <v>0.06805043158006245</v>
@@ -33895,37 +33895,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L38" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P38" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H39" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J39" t="n">
         <v>140.5948665827572</v>
@@ -33989,22 +33989,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P39" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q39" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S39" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T39" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H40" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I40" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J40" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
@@ -34059,7 +34059,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M40" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N40" t="n">
         <v>190.9154857978651</v>
@@ -34074,13 +34074,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S40" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U40" t="n">
         <v>0.06805043158006245</v>
@@ -34132,37 +34132,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K41" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L41" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M41" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P41" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q41" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R41" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H42" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J42" t="n">
         <v>140.5948665827572</v>
@@ -34226,22 +34226,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q42" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S42" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T42" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H43" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I43" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J43" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
@@ -34296,7 +34296,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M43" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N43" t="n">
         <v>190.9154857978651</v>
@@ -34311,13 +34311,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S43" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U43" t="n">
         <v>0.06805043158006245</v>
@@ -34369,37 +34369,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K44" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L44" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M44" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P44" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R44" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H45" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J45" t="n">
         <v>140.5948665827572</v>
@@ -34463,22 +34463,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P45" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q45" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S45" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T45" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H46" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I46" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J46" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
@@ -34533,7 +34533,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M46" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N46" t="n">
         <v>190.9154857978651</v>
@@ -34548,13 +34548,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S46" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U46" t="n">
         <v>0.06805043158006245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7007521391025</v>
+        <v>314.5212925131232</v>
       </c>
       <c r="L11" t="n">
-        <v>450.1555759665628</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N11" t="n">
-        <v>583.618042161187</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O11" t="n">
-        <v>583.618042161187</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P11" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K12" t="n">
-        <v>257.2581871718386</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3976534758339</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245106</v>
+        <v>581.3959646362212</v>
       </c>
       <c r="N12" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O12" t="n">
-        <v>583.618042161187</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P12" t="n">
         <v>150.1915691550064</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K13" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M13" t="n">
         <v>314.5806868114501</v>
@@ -35586,7 +35586,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940541</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K14" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O14" t="n">
-        <v>583.618042161187</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P14" t="n">
-        <v>168.7200793398052</v>
+        <v>372.0350474816751</v>
       </c>
       <c r="Q14" t="n">
-        <v>123.7311746528195</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R14" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K15" t="n">
-        <v>102.4575816364469</v>
+        <v>184.8566611849501</v>
       </c>
       <c r="L15" t="n">
-        <v>184.5573081723747</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M15" t="n">
         <v>234.9220657245106</v>
       </c>
       <c r="N15" t="n">
-        <v>462.8721227543119</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O15" t="n">
-        <v>583.618042161187</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P15" t="n">
         <v>468.6543377949436</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K16" t="n">
         <v>202.1091386667569</v>
@@ -35814,16 +35814,16 @@
         <v>314.5806868114501</v>
       </c>
       <c r="N16" t="n">
-        <v>314.4788694042007</v>
+        <v>314.4788694042006</v>
       </c>
       <c r="O16" t="n">
-        <v>280.3576908422817</v>
+        <v>280.3576908422816</v>
       </c>
       <c r="P16" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L17" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M17" t="n">
-        <v>499.9972856217699</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N17" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O17" t="n">
-        <v>583.618042161187</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P17" t="n">
-        <v>490.5187875112879</v>
+        <v>372.0350474816751</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>136.3142650415357</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K18" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L18" t="n">
-        <v>184.5573081723747</v>
+        <v>373.3314960117585</v>
       </c>
       <c r="M18" t="n">
-        <v>583.618042161187</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N18" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O18" t="n">
-        <v>583.618042161187</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P18" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L19" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M19" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N19" t="n">
         <v>235.0476581770937</v>
@@ -36060,7 +36060,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K20" t="n">
-        <v>457.8461647102672</v>
+        <v>167.4062240717738</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O20" t="n">
-        <v>583.618042161187</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P20" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q20" t="n">
-        <v>123.7311746528195</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R20" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L21" t="n">
-        <v>184.5573081723747</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M21" t="n">
-        <v>378.2509656808435</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N21" t="n">
-        <v>583.618042161187</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O21" t="n">
-        <v>583.618042161187</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.97565579302608</v>
+        <v>77.9867860647994</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L22" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M22" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N22" t="n">
         <v>235.0476581770937</v>
@@ -36297,7 +36297,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L23" t="n">
-        <v>620.8033271354464</v>
+        <v>243.3682276847504</v>
       </c>
       <c r="M23" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N23" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O23" t="n">
-        <v>397.5432808926897</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P23" t="n">
         <v>490.5187875112879</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R23" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490255</v>
+        <v>108.0334200054713</v>
       </c>
       <c r="L24" t="n">
-        <v>184.5573081723747</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M24" t="n">
-        <v>234.9220657245106</v>
+        <v>629.9740312999444</v>
       </c>
       <c r="N24" t="n">
-        <v>570.3251194912086</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O24" t="n">
-        <v>605.3280834444585</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P24" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.97565579302608</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L25" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M25" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N25" t="n">
         <v>235.0476581770937</v>
@@ -36534,7 +36534,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284144</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102674</v>
       </c>
       <c r="L26" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354466</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899418</v>
+        <v>258.0240722971096</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585947</v>
+        <v>704.206508458595</v>
       </c>
       <c r="O26" t="n">
-        <v>238.5179771123162</v>
+        <v>569.1649022335425</v>
       </c>
       <c r="P26" t="n">
-        <v>371.6521791396819</v>
+        <v>490.5187875112881</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273509</v>
       </c>
       <c r="R26" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753161</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564994</v>
       </c>
       <c r="K27" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490257</v>
       </c>
       <c r="L27" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723749</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6271294745104</v>
+        <v>234.9220657245107</v>
       </c>
       <c r="N27" t="n">
-        <v>255.6939405553983</v>
+        <v>713.9740187054515</v>
       </c>
       <c r="O27" t="n">
-        <v>330.1318139081927</v>
+        <v>211.4657641677291</v>
       </c>
       <c r="P27" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949437</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288753</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K28" t="n">
         <v>202.1091386667569</v>
@@ -36759,19 +36759,19 @@
         <v>292.5040294974798</v>
       </c>
       <c r="M28" t="n">
-        <v>314.5806868114501</v>
+        <v>314.5806868114502</v>
       </c>
       <c r="N28" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O28" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P28" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940496</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102672</v>
+        <v>364.4321130754268</v>
       </c>
       <c r="L29" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M29" t="n">
-        <v>258.0240722971093</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N29" t="n">
-        <v>654.0532523170763</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O29" t="n">
         <v>619.3181583750616</v>
@@ -36850,10 +36850,10 @@
         <v>490.5187875112879</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R29" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>366.9228186490255</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3976534758339</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M30" t="n">
-        <v>234.9220657245106</v>
+        <v>322.3617985711059</v>
       </c>
       <c r="N30" t="n">
-        <v>735.0363148989518</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O30" t="n">
-        <v>211.4657641677289</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P30" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.6130706718544</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>74.27673217679164</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M31" t="n">
         <v>314.5806868114501</v>
@@ -37008,7 +37008,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K32" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L32" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M32" t="n">
-        <v>258.0240722971093</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N32" t="n">
-        <v>654.0532523170763</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O32" t="n">
         <v>619.3181583750616</v>
       </c>
       <c r="P32" t="n">
-        <v>490.5187875112879</v>
+        <v>397.1047358764469</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R32" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>366.9228186490255</v>
       </c>
       <c r="L33" t="n">
-        <v>184.5573081723747</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M33" t="n">
-        <v>423.9370572668608</v>
+        <v>322.3617985711059</v>
       </c>
       <c r="N33" t="n">
-        <v>735.0363148989518</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4657641677289</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P33" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K34" t="n">
         <v>202.1091386667569</v>
@@ -37245,7 +37245,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K35" t="n">
-        <v>457.8461647102672</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L35" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M35" t="n">
-        <v>581.9470194654982</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N35" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="O35" t="n">
         <v>238.5179771123162</v>
       </c>
       <c r="P35" t="n">
-        <v>168.7200793398052</v>
+        <v>195.2041757857143</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K36" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3976534758339</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M36" t="n">
-        <v>302.9366015379329</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N36" t="n">
-        <v>674.2621117002076</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O36" t="n">
-        <v>605.3280834444585</v>
+        <v>298.9054970143249</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L37" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M37" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N37" t="n">
         <v>235.0476581770937</v>
@@ -37482,7 +37482,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K38" t="n">
-        <v>133.7007521391025</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L38" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M38" t="n">
-        <v>490.1924317095318</v>
+        <v>674.2621117002077</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466106</v>
+        <v>674.2621117002077</v>
       </c>
       <c r="O38" t="n">
-        <v>619.3181583750616</v>
+        <v>265.0020735582258</v>
       </c>
       <c r="P38" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R38" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>366.9228186490255</v>
       </c>
       <c r="L39" t="n">
-        <v>184.5573081723747</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M39" t="n">
-        <v>509.4171123336852</v>
+        <v>322.3617985711064</v>
       </c>
       <c r="N39" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O39" t="n">
-        <v>605.3280834444585</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P39" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L40" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M40" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N40" t="n">
         <v>235.0476581770937</v>
@@ -37719,7 +37719,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K41" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L41" t="n">
-        <v>620.8033271354464</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M41" t="n">
-        <v>268.2668677174601</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N41" t="n">
-        <v>266.8595840466106</v>
+        <v>295.5861694343685</v>
       </c>
       <c r="O41" t="n">
-        <v>238.5179771123162</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P41" t="n">
         <v>490.5187875112879</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R41" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L42" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M42" t="n">
-        <v>586.8270355836854</v>
+        <v>617.802593237773</v>
       </c>
       <c r="N42" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O42" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P42" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q42" t="n">
         <v>260.0529435288752</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L43" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M43" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N43" t="n">
         <v>235.0476581770937</v>
@@ -37956,7 +37956,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K44" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L44" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M44" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N44" t="n">
-        <v>450.634966833458</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O44" t="n">
-        <v>619.3181583750616</v>
+        <v>240.6422161092212</v>
       </c>
       <c r="P44" t="n">
         <v>490.5187875112879</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.8482752564993</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K45" t="n">
         <v>102.4575816364469</v>
       </c>
       <c r="L45" t="n">
-        <v>184.5573081723747</v>
+        <v>310.1631786539677</v>
       </c>
       <c r="M45" t="n">
-        <v>234.9220657245106</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N45" t="n">
-        <v>674.2621117002072</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O45" t="n">
-        <v>515.6429081855538</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P45" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L46" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M46" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N46" t="n">
         <v>235.0476581770937</v>
@@ -38193,7 +38193,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
